--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3525209.003688873</v>
+        <v>-3525921.608162915</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.42841477</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.5623770505816</v>
+        <v>172.8578812359813</v>
       </c>
       <c r="G11" t="n">
         <v>188.5623770505816</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.6671655938419</v>
+        <v>62.66716559384202</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718761</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550861</v>
+        <v>49.17968824550874</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065497</v>
+        <v>44.13476116065508</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673105</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.1357150295406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810614</v>
+        <v>9.188502199810728</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>69.21539601808924</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851659</v>
+        <v>13.25780256851671</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134799</v>
+        <v>36.6405496213481</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437486</v>
+        <v>58.89840834437498</v>
       </c>
       <c r="V12" t="n">
+        <v>147.1740016707219</v>
+      </c>
+      <c r="W12" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="W12" t="n">
-        <v>88.37493425245628</v>
-      </c>
       <c r="X12" t="n">
-        <v>38.9832651149153</v>
+        <v>38.98326511491541</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947031</v>
+        <v>45.05463680947042</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650155</v>
+        <v>25.09353465650166</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412735</v>
+        <v>57.10576830412747</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605251</v>
+        <v>45.43126511605263</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.7793658598946</v>
+        <v>66.77936585989471</v>
       </c>
       <c r="W13" t="n">
-        <v>111.98105776478</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368722</v>
+        <v>43.58980608368734</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961311</v>
+        <v>38.81162348961323</v>
       </c>
     </row>
     <row r="14">
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>112.7159044549689</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.66716559384196</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.53078872718768</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.17968824550869</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>142.5501342845968</v>
+      </c>
+      <c r="W14" t="n">
+        <v>159.5668145012116</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.5623770505816</v>
-      </c>
-      <c r="C14" t="n">
-        <v>171.8758480566237</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14.08396265066393</v>
-      </c>
-      <c r="G14" t="n">
-        <v>188.5623770505816</v>
-      </c>
-      <c r="H14" t="n">
-        <v>168.6883080494462</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810756</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851673</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134813</v>
+        <v>46.37814801728367</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437501</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084708</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W15" t="n">
-        <v>188.5623770505816</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491544</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.85683763799689</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650169</v>
+        <v>25.0935346565016</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412749</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605266</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989474</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647802</v>
+        <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368736</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961325</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194099</v>
+        <v>49.59336558194014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709079</v>
+        <v>23.4551918170917</v>
       </c>
       <c r="W17" t="n">
         <v>40.47187203370567</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4680557255734845</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>52.45818464705464</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U18" t="n">
-        <v>188.5623770505816</v>
+        <v>8.308980682666601</v>
       </c>
       <c r="V18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>160.1013002005328</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>159.2392352254838</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X21" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194014</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R24" t="n">
-        <v>36.00927461067955</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>17.84595088590273</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098005</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E26" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036441</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203122</v>
+        <v>14.04236090203113</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177551</v>
+        <v>8.997433817177475</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325353</v>
+        <v>36.68353794325344</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266733</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.74979907544513</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870577</v>
+        <v>1.503222277870492</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.76108100089737</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>160.9296523833808</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897888</v>
+        <v>53.23760690897879</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437889</v>
+        <v>3.845937771437804</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992901</v>
+        <v>9.917309465992815</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064986</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257502</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913219</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641719</v>
+        <v>31.6420385164171</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130252</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209727</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135617</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6202637098005</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.738520713146</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741944</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E29" t="n">
-        <v>158.0119353936033</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719806</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3708602775719</v>
+        <v>205.3708602775721</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5509807059685</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036435</v>
+        <v>27.52983825036447</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203107</v>
+        <v>14.04236090203118</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177418</v>
+        <v>8.997433817177532</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325338</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411192</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.429487157734</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
-        <v>146.3157376266733</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.818590750417</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870435</v>
+        <v>1.503222277870548</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280576689302</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V30" t="n">
-        <v>106.6349907919268</v>
+        <v>108.4714677363261</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897873</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437747</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992759</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9684409606498</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257497</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913213</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641705</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130247</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209671</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135561</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036447</v>
+        <v>27.52983825036452</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203118</v>
+        <v>14.04236090203125</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177532</v>
+        <v>8.99743381717758</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325355</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="33">
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870548</v>
+        <v>135.2509304138815</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089748</v>
       </c>
       <c r="V33" t="n">
-        <v>117.8364179888168</v>
+        <v>27.18194424736956</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897885</v>
+        <v>53.2376069089789</v>
       </c>
       <c r="X33" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437917</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992929</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064997</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257513</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.1895720791323</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641722</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130264</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209841</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135731</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3387,25 +3387,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>82.42496083854441</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4583944746289</v>
+        <v>113.0761988718639</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R39" t="n">
-        <v>72.00683253783629</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746289</v>
+        <v>106.3177181406039</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>91.91887503878992</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>25.70776865861438</v>
       </c>
       <c r="X42" t="n">
-        <v>62.34192052724974</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.32579967603034</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
         <v>52.45818464705464</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R45" t="n">
-        <v>97.55463591618815</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>459.3192524822335</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="C11" t="n">
-        <v>459.3192524822335</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="D11" t="n">
-        <v>459.3192524822335</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="E11" t="n">
-        <v>459.3192524822335</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="F11" t="n">
-        <v>268.8522049563935</v>
+        <v>268.852204956394</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055351</v>
+        <v>78.38515743055399</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055351</v>
+        <v>78.38515743055399</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>15.08499016404653</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K11" t="n">
-        <v>185.0137379722659</v>
+        <v>267.4711326400901</v>
       </c>
       <c r="L11" t="n">
-        <v>231.7870762025599</v>
+        <v>314.2444708703841</v>
       </c>
       <c r="M11" t="n">
-        <v>312.7073869257117</v>
+        <v>395.164781593536</v>
       </c>
       <c r="N11" t="n">
-        <v>388.0946368589499</v>
+        <v>470.5520315267741</v>
       </c>
       <c r="O11" t="n">
-        <v>574.7713901390257</v>
+        <v>504.8287151602037</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381373</v>
+        <v>666.4818518381377</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112278</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S11" t="n">
-        <v>687.8752890379866</v>
+        <v>704.5730554290853</v>
       </c>
       <c r="T11" t="n">
-        <v>643.2947222090422</v>
+        <v>659.9924886001409</v>
       </c>
       <c r="U11" t="n">
-        <v>643.2947222090422</v>
+        <v>587.4461600276851</v>
       </c>
       <c r="V11" t="n">
-        <v>643.2947222090422</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="W11" t="n">
-        <v>643.2947222090422</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="X11" t="n">
-        <v>643.2947222090422</v>
+        <v>443.4561253967792</v>
       </c>
       <c r="Y11" t="n">
-        <v>459.3192524822335</v>
+        <v>443.4561253967792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.28084694980396</v>
+        <v>77.35437081744588</v>
       </c>
       <c r="C12" t="n">
-        <v>84.9995315964599</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D12" t="n">
-        <v>84.9995315964599</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E12" t="n">
-        <v>84.9995315964599</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F12" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G12" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H12" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905401</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905401</v>
+        <v>611.264513423435</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243617</v>
+        <v>597.8727936572565</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411819</v>
+        <v>560.8621374740766</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791871</v>
+        <v>501.3687957120816</v>
       </c>
       <c r="V12" t="n">
-        <v>446.9710798533471</v>
+        <v>352.7081879638777</v>
       </c>
       <c r="W12" t="n">
-        <v>357.7034694973306</v>
+        <v>162.2411404380376</v>
       </c>
       <c r="X12" t="n">
-        <v>318.3264340277192</v>
+        <v>122.8641049684261</v>
       </c>
       <c r="Y12" t="n">
-        <v>272.8166998767391</v>
+        <v>77.35437081744588</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703787</v>
+        <v>15.79059153703776</v>
       </c>
       <c r="C13" t="n">
-        <v>27.544335206095</v>
+        <v>27.54433520609477</v>
       </c>
       <c r="D13" t="n">
-        <v>60.35986428920114</v>
+        <v>60.35986428920081</v>
       </c>
       <c r="E13" t="n">
-        <v>96.64683732040815</v>
+        <v>60.35986428920081</v>
       </c>
       <c r="F13" t="n">
-        <v>135.6555767554557</v>
+        <v>99.36860372424826</v>
       </c>
       <c r="G13" t="n">
-        <v>135.6555767554557</v>
+        <v>108.9013385960982</v>
       </c>
       <c r="H13" t="n">
-        <v>148.0371025960635</v>
+        <v>121.2828644367059</v>
       </c>
       <c r="I13" t="n">
-        <v>161.383504444974</v>
+        <v>134.6292662856162</v>
       </c>
       <c r="J13" t="n">
-        <v>218.9031955115857</v>
+        <v>192.1489573522278</v>
       </c>
       <c r="K13" t="n">
-        <v>218.9031955115857</v>
+        <v>192.1489573522278</v>
       </c>
       <c r="L13" t="n">
-        <v>363.6414349668438</v>
+        <v>192.1489573522278</v>
       </c>
       <c r="M13" t="n">
-        <v>400.5753329514379</v>
+        <v>192.1489573522278</v>
       </c>
       <c r="N13" t="n">
-        <v>400.5753329514379</v>
+        <v>261.1119839323512</v>
       </c>
       <c r="O13" t="n">
-        <v>400.5753329514379</v>
+        <v>400.5753329514389</v>
       </c>
       <c r="P13" t="n">
-        <v>519.245920161285</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.245920161285</v>
+        <v>519.2459201612859</v>
       </c>
       <c r="R13" t="n">
-        <v>493.898915457748</v>
+        <v>493.8989154577488</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111548</v>
+        <v>436.2163212111554</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272634</v>
+        <v>390.3261544272639</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791728</v>
+        <v>278.8848418791732</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701883</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980445</v>
+        <v>98.31875740980468</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456483</v>
+        <v>54.28865025456494</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>563.7824606764864</v>
+        <v>192.2396063749665</v>
       </c>
       <c r="C14" t="n">
-        <v>390.1704929425231</v>
+        <v>192.2396063749665</v>
       </c>
       <c r="D14" t="n">
-        <v>390.1704929425231</v>
+        <v>192.2396063749665</v>
       </c>
       <c r="E14" t="n">
-        <v>390.1704929425231</v>
+        <v>192.2396063749665</v>
       </c>
       <c r="F14" t="n">
-        <v>375.9442680428625</v>
+        <v>78.38515743055356</v>
       </c>
       <c r="G14" t="n">
-        <v>185.4772205170225</v>
+        <v>78.38515743055356</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404653</v>
+        <v>78.38515743055356</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567086</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649278</v>
+        <v>267.47113264009</v>
       </c>
       <c r="L14" t="n">
-        <v>472.2512751450036</v>
+        <v>314.244470870384</v>
       </c>
       <c r="M14" t="n">
-        <v>556.8179182714697</v>
+        <v>395.1647815935358</v>
       </c>
       <c r="N14" t="n">
-        <v>632.2051682047079</v>
+        <v>470.5520315267739</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4818518381376</v>
+        <v>504.8287151602036</v>
       </c>
       <c r="P14" t="n">
         <v>666.4818518381376</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023264</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2495082023264</v>
+        <v>687.8752890379867</v>
       </c>
       <c r="T14" t="n">
-        <v>754.2495082023264</v>
+        <v>687.8752890379867</v>
       </c>
       <c r="U14" t="n">
-        <v>754.2495082023264</v>
+        <v>687.8752890379867</v>
       </c>
       <c r="V14" t="n">
-        <v>754.2495082023264</v>
+        <v>543.8852544070809</v>
       </c>
       <c r="W14" t="n">
-        <v>754.2495082023264</v>
+        <v>382.7066539008065</v>
       </c>
       <c r="X14" t="n">
-        <v>754.2495082023264</v>
+        <v>382.7066539008065</v>
       </c>
       <c r="Y14" t="n">
-        <v>754.2495082023264</v>
+        <v>192.2396063749665</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.8079422639274</v>
+        <v>77.35437081744583</v>
       </c>
       <c r="C15" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D15" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404653</v>
@@ -5367,40 +5367,40 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R15" t="n">
-        <v>618.1801765352212</v>
+        <v>611.264513423435</v>
       </c>
       <c r="S15" t="n">
-        <v>604.7884567690427</v>
+        <v>420.797465897595</v>
       </c>
       <c r="T15" t="n">
-        <v>567.7778005858628</v>
+        <v>373.9508517387226</v>
       </c>
       <c r="U15" t="n">
-        <v>508.2844588238679</v>
+        <v>314.4575099767277</v>
       </c>
       <c r="V15" t="n">
-        <v>445.335699641194</v>
+        <v>251.508750794054</v>
       </c>
       <c r="W15" t="n">
-        <v>254.868652115354</v>
+        <v>162.2411404380375</v>
       </c>
       <c r="X15" t="n">
-        <v>215.4916166457425</v>
+        <v>122.864104968426</v>
       </c>
       <c r="Y15" t="n">
-        <v>132.8079422639274</v>
+        <v>77.35437081744583</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.79059153703773</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C16" t="n">
-        <v>15.79059153703773</v>
+        <v>26.8387338331036</v>
       </c>
       <c r="D16" t="n">
-        <v>15.79059153703773</v>
+        <v>59.6542629162097</v>
       </c>
       <c r="E16" t="n">
-        <v>52.0775645682446</v>
+        <v>95.94123594741666</v>
       </c>
       <c r="F16" t="n">
-        <v>91.08630400329201</v>
+        <v>134.9499753824642</v>
       </c>
       <c r="G16" t="n">
-        <v>91.08630400329201</v>
+        <v>144.4827102543142</v>
       </c>
       <c r="H16" t="n">
-        <v>103.4678298438997</v>
+        <v>144.4827102543142</v>
       </c>
       <c r="I16" t="n">
-        <v>116.81423169281</v>
+        <v>144.4827102543142</v>
       </c>
       <c r="J16" t="n">
-        <v>174.3339227594215</v>
+        <v>202.0024013209258</v>
       </c>
       <c r="K16" t="n">
-        <v>174.3339227594215</v>
+        <v>312.2064102819236</v>
       </c>
       <c r="L16" t="n">
-        <v>174.3339227594215</v>
+        <v>312.2064102819236</v>
       </c>
       <c r="M16" t="n">
-        <v>325.938969511622</v>
+        <v>312.2064102819236</v>
       </c>
       <c r="N16" t="n">
-        <v>486.1532010353864</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612862</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612862</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612862</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577491</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111557</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272641</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791733</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980473</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456497</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340414</v>
+        <v>463.5335379340409</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844278</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438563</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372149</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019096</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267379</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="K17" t="n">
-        <v>15.08499016404653</v>
+        <v>257.6252425490497</v>
       </c>
       <c r="L17" t="n">
-        <v>61.85832839434055</v>
+        <v>304.3985807793438</v>
       </c>
       <c r="M17" t="n">
-        <v>230.6018799200006</v>
+        <v>385.3188915024956</v>
       </c>
       <c r="N17" t="n">
-        <v>417.2786332000764</v>
+        <v>460.7061414357337</v>
       </c>
       <c r="O17" t="n">
-        <v>451.555316833506</v>
+        <v>494.9828250691634</v>
       </c>
       <c r="P17" t="n">
-        <v>638.2320701135818</v>
+        <v>494.9828250691634</v>
       </c>
       <c r="Q17" t="n">
-        <v>638.2320701135818</v>
+        <v>681.6595783492392</v>
       </c>
       <c r="R17" t="n">
-        <v>638.2320701135818</v>
+        <v>681.6595783492392</v>
       </c>
       <c r="S17" t="n">
-        <v>707.4481717933592</v>
+        <v>681.6595783492392</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933592</v>
+        <v>707.4481717933593</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557698</v>
+        <v>730.5573952557693</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338445</v>
       </c>
       <c r="X17" t="n">
-        <v>626.688713905921</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075486</v>
+        <v>540.970556707548</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>366.39975003886</v>
+        <v>228.85317170307</v>
       </c>
       <c r="C18" t="n">
-        <v>176.9874757718237</v>
+        <v>228.85317170307</v>
       </c>
       <c r="D18" t="n">
-        <v>176.9874757718237</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E18" t="n">
-        <v>176.9874757718237</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F18" t="n">
-        <v>176.9874757718237</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G18" t="n">
-        <v>176.9874757718237</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5146922106384</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I18" t="n">
         <v>68.07305546410171</v>
@@ -5595,49 +5595,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635126</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681696</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
         <v>352.1703666486677</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905401</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905401</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="S18" t="n">
-        <v>747.3338450905401</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="T18" t="n">
-        <v>747.3338450905401</v>
+        <v>237.2460814835413</v>
       </c>
       <c r="U18" t="n">
-        <v>556.8667975647001</v>
+        <v>228.85317170307</v>
       </c>
       <c r="V18" t="n">
-        <v>366.39975003886</v>
+        <v>228.85317170307</v>
       </c>
       <c r="W18" t="n">
-        <v>366.39975003886</v>
+        <v>228.85317170307</v>
       </c>
       <c r="X18" t="n">
-        <v>366.39975003886</v>
+        <v>228.85317170307</v>
       </c>
       <c r="Y18" t="n">
-        <v>366.39975003886</v>
+        <v>228.85317170307</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340412</v>
+        <v>463.5335379340416</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844275</v>
+        <v>410.219491884428</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438559</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372142</v>
       </c>
       <c r="F20" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
@@ -5753,49 +5753,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K20" t="n">
-        <v>15.08499016404653</v>
+        <v>38.44864261669493</v>
       </c>
       <c r="L20" t="n">
-        <v>151.6358423071408</v>
+        <v>85.22198084698894</v>
       </c>
       <c r="M20" t="n">
-        <v>232.5561530302925</v>
+        <v>166.1422915701407</v>
       </c>
       <c r="N20" t="n">
-        <v>419.2329063103683</v>
+        <v>241.5295415033789</v>
       </c>
       <c r="O20" t="n">
-        <v>605.9096595904441</v>
+        <v>275.8062251368085</v>
       </c>
       <c r="P20" t="n">
-        <v>605.9096595904441</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="Q20" t="n">
-        <v>605.9096595904441</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="R20" t="n">
-        <v>707.4481717933592</v>
+        <v>564.0214906197995</v>
       </c>
       <c r="S20" t="n">
-        <v>707.4481717933592</v>
+        <v>633.2375922995768</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933592</v>
+        <v>707.4481717933593</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V20" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557702</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338455</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059208</v>
+        <v>626.6887139059213</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075488</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>402.0639756254432</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C21" t="n">
-        <v>402.0639756254432</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D21" t="n">
-        <v>402.0639756254432</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E21" t="n">
-        <v>228.5007717468576</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F21" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G21" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H21" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I21" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
@@ -5841,40 +5841,40 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R21" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S21" t="n">
-        <v>754.2495082023264</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="T21" t="n">
-        <v>592.5310231512832</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="U21" t="n">
-        <v>592.5310231512832</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="V21" t="n">
-        <v>592.5310231512832</v>
+        <v>586.4861327415666</v>
       </c>
       <c r="W21" t="n">
-        <v>592.5310231512832</v>
+        <v>396.0190852157266</v>
       </c>
       <c r="X21" t="n">
-        <v>402.0639756254432</v>
+        <v>205.5520376898866</v>
       </c>
       <c r="Y21" t="n">
-        <v>402.0639756254432</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844274</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438556</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F23" t="n">
         <v>187.8189404019089</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267294</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H23" t="n">
         <v>15.08499016404653</v>
@@ -5990,49 +5990,49 @@
         <v>201.7617434441223</v>
       </c>
       <c r="K23" t="n">
-        <v>218.9256690552995</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L23" t="n">
-        <v>265.6990072855935</v>
+        <v>248.5350816744163</v>
       </c>
       <c r="M23" t="n">
-        <v>346.6193180087453</v>
+        <v>329.4553923975681</v>
       </c>
       <c r="N23" t="n">
-        <v>533.2960712888211</v>
+        <v>404.8426423308062</v>
       </c>
       <c r="O23" t="n">
-        <v>567.5727549222506</v>
+        <v>439.1193259642358</v>
       </c>
       <c r="P23" t="n">
-        <v>754.2495082023264</v>
+        <v>520.7714185132833</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.2495082023264</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023264</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023264</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023264</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023261</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557697</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>336.9424084933943</v>
+        <v>538.8405845486366</v>
       </c>
       <c r="C24" t="n">
-        <v>336.9424084933943</v>
+        <v>349.4283102816003</v>
       </c>
       <c r="D24" t="n">
-        <v>336.9424084933943</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="E24" t="n">
-        <v>336.9424084933943</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F24" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G24" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H24" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404653</v>
@@ -6078,40 +6078,40 @@
         <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023264</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R24" t="n">
-        <v>717.8765035450743</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S24" t="n">
-        <v>717.8765035450743</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="T24" t="n">
-        <v>717.8765035450743</v>
+        <v>538.8405845486366</v>
       </c>
       <c r="U24" t="n">
-        <v>717.8765035450743</v>
+        <v>538.8405845486366</v>
       </c>
       <c r="V24" t="n">
-        <v>527.4094560192343</v>
+        <v>538.8405845486366</v>
       </c>
       <c r="W24" t="n">
-        <v>527.4094560192343</v>
+        <v>538.8405845486366</v>
       </c>
       <c r="X24" t="n">
-        <v>336.9424084933943</v>
+        <v>538.8405845486366</v>
       </c>
       <c r="Y24" t="n">
-        <v>336.9424084933943</v>
+        <v>538.8405845486366</v>
       </c>
     </row>
     <row r="25">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792735</v>
+        <v>882.8924400792723</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962476</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471533</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693958</v>
+        <v>406.074873069395</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577061</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662737</v>
+        <v>63.72957914662734</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847219</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K26" t="n">
         <v>375.9831015629838</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946293</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191336</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P26" t="n">
         <v>1655.109002436483</v>
@@ -6251,25 +6251,25 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169496</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.810566182448</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451889</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X26" t="n">
         <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162.9254882285576</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="C27" t="n">
-        <v>162.9254882285576</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="D27" t="n">
-        <v>162.9254882285576</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E27" t="n">
-        <v>162.9254882285576</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F27" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G27" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H27" t="n">
         <v>35.92166172201684</v>
@@ -6324,31 +6324,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327872</v>
+        <v>784.9266249210009</v>
       </c>
       <c r="U27" t="n">
-        <v>552.2179873571001</v>
+        <v>760.9255330009025</v>
       </c>
       <c r="V27" t="n">
-        <v>309.1382692607342</v>
+        <v>598.3703285732452</v>
       </c>
       <c r="W27" t="n">
-        <v>255.3629087466141</v>
+        <v>544.5949680591251</v>
       </c>
       <c r="X27" t="n">
-        <v>251.4781231188991</v>
+        <v>540.7101824314102</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.4606388098154</v>
+        <v>530.6926981223265</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201684</v>
+        <v>82.46135946111667</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201684</v>
+        <v>82.46135946111667</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201684</v>
+        <v>82.46135946111667</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201684</v>
+        <v>156.256052966207</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201684</v>
+        <v>156.256052966207</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201684</v>
+        <v>156.256052966207</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201684</v>
+        <v>204.3884088851601</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="K28" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="L28" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="M28" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="N28" t="n">
-        <v>230.9218473158241</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="O28" t="n">
-        <v>230.9218473158241</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224438</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224438</v>
+        <v>256.3464833623369</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224431</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177463</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757513</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695572</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024692</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398201</v>
+        <v>48.17092928398183</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063876</v>
+        <v>39.63307197063867</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792724</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962478</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471535</v>
+        <v>597.7236336471539</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693954</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G29" t="n">
         <v>198.6295596577065</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662729</v>
+        <v>63.72957914662742</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847214</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629839</v>
+        <v>375.9831015629834</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946305</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191348</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
@@ -6497,7 +6497,7 @@
         <v>1735.756487451889</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662879</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
         <v>1501.572351998502</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>369.9125818833583</v>
+        <v>583.6807634223817</v>
       </c>
       <c r="C30" t="n">
-        <v>369.9125818833583</v>
+        <v>583.6807634223817</v>
       </c>
       <c r="D30" t="n">
-        <v>369.9125818833583</v>
+        <v>422.9006471834135</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3493780047727</v>
+        <v>249.3374433048279</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207202</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207202</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207202</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207202</v>
       </c>
       <c r="J30" t="n">
         <v>35.92166172201684</v>
@@ -6570,22 +6570,22 @@
         <v>786.4450312622843</v>
       </c>
       <c r="T30" t="n">
-        <v>784.926624921001</v>
+        <v>784.9266249210009</v>
       </c>
       <c r="U30" t="n">
-        <v>545.3023242453139</v>
+        <v>760.9255330009025</v>
       </c>
       <c r="V30" t="n">
-        <v>437.5902123342767</v>
+        <v>651.3583938733004</v>
       </c>
       <c r="W30" t="n">
-        <v>383.8148518201568</v>
+        <v>597.5830333591804</v>
       </c>
       <c r="X30" t="n">
-        <v>379.9300661924419</v>
+        <v>593.6982477314654</v>
       </c>
       <c r="Y30" t="n">
-        <v>369.9125818833583</v>
+        <v>583.6807634223817</v>
       </c>
     </row>
     <row r="31">
@@ -6604,64 +6604,64 @@
         <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>90.10074499640132</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201684</v>
+        <v>163.8954385014916</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201684</v>
+        <v>208.2141274433843</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201684</v>
+        <v>208.2141274433843</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="K31" t="n">
-        <v>180.9116247530574</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224427</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224427</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224427</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224427</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224427</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224427</v>
+        <v>256.3464833623374</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224427</v>
+        <v>266.2898381224435</v>
       </c>
       <c r="S31" t="n">
-        <v>244.099493717746</v>
+        <v>244.0994937177466</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757511</v>
+        <v>233.7015767757516</v>
       </c>
       <c r="U31" t="n">
-        <v>157.752514069557</v>
+        <v>157.7525140695574</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024691</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398172</v>
+        <v>48.17092928398195</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063862</v>
+        <v>39.63307197063873</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6677,22 +6677,22 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962487</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471543</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662742</v>
+        <v>63.72957914662747</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
@@ -6701,10 +6701,10 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
         <v>926.3413643191341</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.92166172201684</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="C33" t="n">
-        <v>35.92166172201684</v>
+        <v>530.6926981223265</v>
       </c>
       <c r="D33" t="n">
-        <v>35.92166172201684</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201684</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F33" t="n">
         <v>35.92166172201684</v>
@@ -6798,31 +6798,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R33" t="n">
-        <v>657.2913627069654</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="S33" t="n">
-        <v>463.7686840270948</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="T33" t="n">
-        <v>462.2502776858114</v>
+        <v>649.8279298341212</v>
       </c>
       <c r="U33" t="n">
-        <v>438.249185765713</v>
+        <v>625.8268379140227</v>
       </c>
       <c r="V33" t="n">
-        <v>319.2225009285243</v>
+        <v>598.3703285732454</v>
       </c>
       <c r="W33" t="n">
-        <v>265.4471404144042</v>
+        <v>544.5949680591253</v>
       </c>
       <c r="X33" t="n">
-        <v>261.5623547866892</v>
+        <v>540.7101824314103</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.92166172201684</v>
+        <v>530.6926981223265</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>71.41321716505084</v>
+        <v>109.716355227107</v>
       </c>
       <c r="G34" t="n">
-        <v>115.7319061069435</v>
+        <v>154.0350441689997</v>
       </c>
       <c r="H34" t="n">
-        <v>115.7319061069435</v>
+        <v>154.0350441689997</v>
       </c>
       <c r="I34" t="n">
-        <v>115.7319061069435</v>
+        <v>154.0350441689997</v>
       </c>
       <c r="J34" t="n">
-        <v>115.7319061069435</v>
+        <v>154.0350441689997</v>
       </c>
       <c r="K34" t="n">
-        <v>115.7319061069435</v>
+        <v>154.0350441689997</v>
       </c>
       <c r="L34" t="n">
-        <v>115.7319061069435</v>
+        <v>154.0350441689997</v>
       </c>
       <c r="M34" t="n">
-        <v>115.7319061069435</v>
+        <v>256.3464833623378</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623378</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623378</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623378</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623378</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177466</v>
+        <v>244.099493717747</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757519</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695577</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024696</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398206</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063874</v>
+        <v>39.63307197063879</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.011976583746</v>
+        <v>623.0119765837458</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
         <v>244.8128742144263</v>
@@ -6932,55 +6932,55 @@
         <v>20.83667155797031</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83667155797031</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83667155797031</v>
+        <v>244.9424160029271</v>
       </c>
       <c r="K35" t="n">
-        <v>20.83667155797031</v>
+        <v>502.7962265328096</v>
       </c>
       <c r="L35" t="n">
-        <v>278.6904820878529</v>
+        <v>549.5695647631036</v>
       </c>
       <c r="M35" t="n">
-        <v>359.6107928110047</v>
+        <v>630.4898754862554</v>
       </c>
       <c r="N35" t="n">
-        <v>617.4646033408873</v>
+        <v>705.8771254194936</v>
       </c>
       <c r="O35" t="n">
-        <v>651.7412869743168</v>
+        <v>740.1538090529232</v>
       </c>
       <c r="P35" t="n">
-        <v>906.18715089735</v>
+        <v>746.378974099896</v>
       </c>
       <c r="Q35" t="n">
-        <v>997.7287420164702</v>
+        <v>926.939357709184</v>
       </c>
       <c r="R35" t="n">
-        <v>997.7287420164702</v>
+        <v>926.939357709184</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.833577898516</v>
+        <v>971.0441935912295</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.833577898516</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="V35" t="n">
-        <v>992.520338742662</v>
+        <v>992.5203387426618</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114403</v>
+        <v>926.0185337114401</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742193</v>
+        <v>837.4094049742191</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07012156655</v>
+        <v>726.0701215665498</v>
       </c>
     </row>
     <row r="36">
@@ -7041,25 +7041,25 @@
         <v>771.3600410982377</v>
       </c>
       <c r="S36" t="n">
-        <v>771.3600410982377</v>
+        <v>577.8373624183671</v>
       </c>
       <c r="T36" t="n">
-        <v>771.3600410982377</v>
+        <v>360.6957473214951</v>
       </c>
       <c r="U36" t="n">
-        <v>771.3600410982377</v>
+        <v>360.6957473214951</v>
       </c>
       <c r="V36" t="n">
-        <v>688.1025048976878</v>
+        <v>360.6957473214951</v>
       </c>
       <c r="W36" t="n">
-        <v>425.0132175495777</v>
+        <v>246.4773646226427</v>
       </c>
       <c r="X36" t="n">
-        <v>425.0132175495777</v>
+        <v>246.4773646226427</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.3725244849054</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.08244251644237</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="L37" t="n">
-        <v>37.60118863100834</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="M37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="N37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="O37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T37" t="n">
-        <v>37.60118863100834</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U37" t="n">
+        <v>39.27205564330161</v>
+      </c>
+      <c r="V37" t="n">
+        <v>39.27205564330161</v>
+      </c>
+      <c r="W37" t="n">
         <v>20.83667155797031</v>
       </c>
-      <c r="V37" t="n">
-        <v>47.51782660177367</v>
-      </c>
-      <c r="W37" t="n">
-        <v>29.08244251644237</v>
-      </c>
       <c r="X37" t="n">
-        <v>29.08244251644237</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.08244251644237</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837461</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248355</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749671</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590289</v>
+        <v>377.2770891590286</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144267</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589356</v>
@@ -7169,55 +7169,55 @@
         <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83667155797031</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83667155797031</v>
+        <v>178.1482812515661</v>
       </c>
       <c r="K38" t="n">
-        <v>20.83667155797031</v>
+        <v>178.1482812515661</v>
       </c>
       <c r="L38" t="n">
-        <v>167.9816189864497</v>
+        <v>224.9216194818601</v>
       </c>
       <c r="M38" t="n">
-        <v>248.9019297096015</v>
+        <v>305.8419302050119</v>
       </c>
       <c r="N38" t="n">
-        <v>506.7557402394841</v>
+        <v>381.22918013825</v>
       </c>
       <c r="O38" t="n">
-        <v>541.0324238729137</v>
+        <v>415.5058637716796</v>
       </c>
       <c r="P38" t="n">
-        <v>795.4782877959468</v>
+        <v>669.9517276947128</v>
       </c>
       <c r="Q38" t="n">
-        <v>976.0386714052348</v>
+        <v>850.5121113040008</v>
       </c>
       <c r="R38" t="n">
-        <v>976.0386714052348</v>
+        <v>926.939357709184</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.14350728728</v>
+        <v>971.0441935912295</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426621</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665504</v>
+        <v>726.0701215665501</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83667155797031</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83667155797031</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797031</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797031</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F39" t="n">
         <v>20.83667155797031</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100241</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="R39" t="n">
-        <v>705.5415299293813</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="S39" t="n">
-        <v>705.5415299293813</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="T39" t="n">
-        <v>705.5415299293813</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="U39" t="n">
-        <v>705.5415299293813</v>
+        <v>531.7357404225506</v>
       </c>
       <c r="V39" t="n">
-        <v>462.4618118330154</v>
+        <v>288.6560223261847</v>
       </c>
       <c r="W39" t="n">
-        <v>199.3725244849054</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="X39" t="n">
-        <v>199.3725244849054</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="Y39" t="n">
-        <v>199.3725244849054</v>
+        <v>181.2643878407262</v>
       </c>
     </row>
     <row r="40">
@@ -7339,16 +7339,16 @@
         <v>20.83667155797031</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Q40" t="n">
         <v>56.03657271633964</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676713</v>
+        <v>818.5041758676717</v>
       </c>
       <c r="C41" t="n">
-        <v>708.192375400215</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173171</v>
+        <v>478.6394038173175</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6703794211881</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673109</v>
+        <v>251.3999290678046</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9998061668182</v>
+        <v>298.1732672980987</v>
       </c>
       <c r="M41" t="n">
-        <v>992.7228192869189</v>
+        <v>617.6804247904637</v>
       </c>
       <c r="N41" t="n">
-        <v>1068.110069220157</v>
+        <v>693.0676747237019</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.386752853587</v>
+        <v>965.9312051263448</v>
       </c>
       <c r="P41" t="n">
-        <v>1326.080383469424</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1339.432986044275</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S41" t="n">
         <v>1385.107999142262</v>
@@ -7448,13 +7448,13 @@
         <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X41" t="n">
         <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590208</v>
+        <v>952.9389490590213</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>231.3040605165953</v>
+        <v>540.0326967698629</v>
       </c>
       <c r="C42" t="n">
-        <v>231.3040605165953</v>
+        <v>540.0326967698629</v>
       </c>
       <c r="D42" t="n">
-        <v>231.3040605165953</v>
+        <v>540.0326967698629</v>
       </c>
       <c r="E42" t="n">
-        <v>231.3040605165953</v>
+        <v>540.0326967698629</v>
       </c>
       <c r="F42" t="n">
-        <v>231.3040605165953</v>
+        <v>379.604980487107</v>
       </c>
       <c r="G42" t="n">
-        <v>81.05716689067754</v>
+        <v>229.3580868611893</v>
       </c>
       <c r="H42" t="n">
-        <v>81.05716689067754</v>
+        <v>136.510738337159</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05716689067754</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292701</v>
+        <v>66.06116862292703</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
@@ -7521,19 +7521,19 @@
         <v>785.5081342426761</v>
       </c>
       <c r="U42" t="n">
-        <v>545.883833566989</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="V42" t="n">
-        <v>545.883833566989</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="W42" t="n">
-        <v>519.9163904774795</v>
+        <v>759.5406911531666</v>
       </c>
       <c r="X42" t="n">
-        <v>456.9447535812676</v>
+        <v>540.0326967698629</v>
       </c>
       <c r="Y42" t="n">
-        <v>231.3040605165953</v>
+        <v>540.0326967698629</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06910159062234</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="N43" t="n">
         <v>130.1759968085603</v>
@@ -7600,19 +7600,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676714</v>
+        <v>818.5041758676709</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002153</v>
+        <v>708.1923754002148</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418005</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173169</v>
+        <v>478.6394038173165</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641687</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06910159062234</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0383433367451</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L44" t="n">
-        <v>545.3985283362524</v>
+        <v>523.4075114924609</v>
       </c>
       <c r="M44" t="n">
-        <v>626.3188390594042</v>
+        <v>604.3278222156127</v>
       </c>
       <c r="N44" t="n">
-        <v>921.7557831535441</v>
+        <v>918.3019189180641</v>
       </c>
       <c r="O44" t="n">
-        <v>1194.619313556187</v>
+        <v>952.5786025514938</v>
       </c>
       <c r="P44" t="n">
-        <v>1194.619313556187</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.427463858279</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.102476956267</v>
+        <v>1371.755396567411</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142261</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.208918225169</v>
+        <v>1394.208918225168</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.51905086077</v>
+        <v>1313.519050860769</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.640617621003</v>
+        <v>1215.640617621002</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.654860675236</v>
+        <v>1095.654860675235</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590211</v>
+        <v>952.9389490590206</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241.8372831296458</v>
+        <v>712.901998065592</v>
       </c>
       <c r="C45" t="n">
-        <v>241.8372831296458</v>
+        <v>523.4897237985557</v>
       </c>
       <c r="D45" t="n">
-        <v>81.05716689067754</v>
+        <v>523.4897237985557</v>
       </c>
       <c r="E45" t="n">
-        <v>81.05716689067754</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="F45" t="n">
-        <v>81.05716689067754</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="G45" t="n">
-        <v>81.05716689067754</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="H45" t="n">
-        <v>81.05716689067754</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="I45" t="n">
-        <v>81.05716689067754</v>
+        <v>81.05716689067752</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K45" t="n">
         <v>66.06116862292701</v>
@@ -7746,31 +7746,31 @@
         <v>785.5081342426761</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="R45" t="n">
-        <v>686.9680979636981</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="S45" t="n">
-        <v>493.4454192838276</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="T45" t="n">
-        <v>493.4454192838276</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="U45" t="n">
-        <v>493.4454192838276</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="V45" t="n">
-        <v>493.4454192838276</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="W45" t="n">
-        <v>467.4779761943181</v>
+        <v>752.6250280413802</v>
       </c>
       <c r="X45" t="n">
-        <v>467.4779761943181</v>
+        <v>752.6250280413802</v>
       </c>
       <c r="Y45" t="n">
-        <v>241.8372831296458</v>
+        <v>752.6250280413802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D46" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E46" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F46" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G46" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78910102174639</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085603</v>
+        <v>92.97810218059337</v>
       </c>
       <c r="R46" t="n">
         <v>130.1759968085603</v>
@@ -7843,13 +7843,13 @@
         <v>77.88111388449923</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
   </sheetData>
@@ -8772,7 +8772,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566417</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041438</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.757591053278</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566235</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
-        <v>193.1492627370808</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
-        <v>36.30722326487657</v>
+        <v>52.011719079477</v>
       </c>
       <c r="G11" t="n">
-        <v>51.9458105704679</v>
+        <v>51.94581057046798</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718774</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845967</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701508</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.82020306435403</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.195214002696559</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>193.149262737081</v>
+        <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>210.7856376647944</v>
+        <v>112.1536958604893</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046804</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384204</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718777</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550876</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065511</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673108</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845969</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.453064970151</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938947</v>
+        <v>15.39354104331301</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-2.688691965331182e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26320,28 +26320,28 @@
         <v>66144.89963823445</v>
       </c>
       <c r="E2" t="n">
-        <v>56999.2566765359</v>
+        <v>56999.25667653592</v>
       </c>
       <c r="F2" t="n">
-        <v>56999.25667653594</v>
+        <v>56999.25667653592</v>
       </c>
       <c r="G2" t="n">
-        <v>66278.89116439015</v>
+        <v>66278.89116439012</v>
       </c>
       <c r="H2" t="n">
-        <v>66278.89116439015</v>
+        <v>66278.89116439014</v>
       </c>
       <c r="I2" t="n">
-        <v>66278.89116439015</v>
+        <v>66278.89116439014</v>
       </c>
       <c r="J2" t="n">
+        <v>66278.89116439014</v>
+      </c>
+      <c r="K2" t="n">
         <v>66278.89116439017</v>
       </c>
-      <c r="K2" t="n">
-        <v>66278.89116439011</v>
-      </c>
       <c r="L2" t="n">
-        <v>66278.89116439014</v>
+        <v>66278.89116439018</v>
       </c>
       <c r="M2" t="n">
         <v>66278.89116439018</v>
@@ -26350,10 +26350,10 @@
         <v>66278.8911643902</v>
       </c>
       <c r="O2" t="n">
-        <v>66278.89116439021</v>
+        <v>66278.89116439018</v>
       </c>
       <c r="P2" t="n">
-        <v>66278.8911643902</v>
+        <v>66278.89116439022</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842065</v>
+        <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400485</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400476</v>
+        <v>95275.95397400473</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145967</v>
+        <v>46874.16014145972</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660012</v>
+        <v>72403.48181660015</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>331148.6906652544</v>
+        <v>331148.6906652543</v>
       </c>
       <c r="F4" t="n">
         <v>331148.6906652544</v>
@@ -26442,10 +26442,10 @@
         <v>402517.6175033181</v>
       </c>
       <c r="K4" t="n">
-        <v>402517.6175033182</v>
+        <v>402517.617503318</v>
       </c>
       <c r="L4" t="n">
-        <v>402517.6175033181</v>
+        <v>402517.617503318</v>
       </c>
       <c r="M4" t="n">
         <v>401692.5905255168</v>
@@ -26454,10 +26454,10 @@
         <v>401692.5905255168</v>
       </c>
       <c r="O4" t="n">
+        <v>402079.8338982546</v>
+      </c>
+      <c r="P4" t="n">
         <v>402079.8338982545</v>
-      </c>
-      <c r="P4" t="n">
-        <v>402079.8338982546</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>28663.94612301864</v>
+      </c>
+      <c r="F5" t="n">
         <v>28663.94612301865</v>
-      </c>
-      <c r="F5" t="n">
-        <v>28663.94612301864</v>
       </c>
       <c r="G5" t="n">
         <v>38676.13884131941</v>
@@ -26491,13 +26491,13 @@
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
+        <v>47453.7764795149</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47453.77647951489</v>
+      </c>
+      <c r="L5" t="n">
         <v>47453.77647951488</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47453.7764795149</v>
-      </c>
-      <c r="L5" t="n">
-        <v>47453.7764795149</v>
       </c>
       <c r="M5" t="n">
         <v>40915.013666005</v>
@@ -26506,7 +26506,7 @@
         <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
       <c r="P5" t="n">
         <v>43800.23675152496</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408293.8420967008</v>
+        <v>-408298.308480906</v>
       </c>
       <c r="C6" t="n">
-        <v>-408293.8420967009</v>
+        <v>-408298.3084809061</v>
       </c>
       <c r="D6" t="n">
-        <v>-408293.8420967008</v>
+        <v>-408298.308480906</v>
       </c>
       <c r="E6" t="n">
-        <v>-583126.2222959436</v>
+        <v>-583435.5434455386</v>
       </c>
       <c r="F6" t="n">
-        <v>-302813.3801117369</v>
+        <v>-303122.7012613323</v>
       </c>
       <c r="G6" t="n">
-        <v>-469284.8687208959</v>
+        <v>-469284.8687208958</v>
       </c>
       <c r="H6" t="n">
         <v>-374008.9147468911</v>
@@ -26546,19 +26546,19 @@
         <v>-527337.506342784</v>
       </c>
       <c r="K6" t="n">
-        <v>-383692.502818443</v>
+        <v>-383692.5028184428</v>
       </c>
       <c r="L6" t="n">
-        <v>-478968.4567924476</v>
+        <v>-478968.4567924475</v>
       </c>
       <c r="M6" t="n">
-        <v>-423202.8731685912</v>
+        <v>-423202.8731685913</v>
       </c>
       <c r="N6" t="n">
         <v>-376328.7130271316</v>
       </c>
       <c r="O6" t="n">
-        <v>-452004.6613019893</v>
+        <v>-452004.6613019895</v>
       </c>
       <c r="P6" t="n">
         <v>-379601.1794853893</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
         <v>178.3296493245552</v>
@@ -26707,10 +26707,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
+        <v>213.4669766680328</v>
+      </c>
+      <c r="K2" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="K2" t="n">
-        <v>213.4669766680329</v>
       </c>
       <c r="L2" t="n">
         <v>213.4669766680327</v>
@@ -26820,16 +26820,16 @@
         <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827794</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827791</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.094942467506</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682459</v>
+        <v>58.59270017682465</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406667</v>
+        <v>63.30917227406664</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815035</v>
+        <v>90.40537540815052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>76.7530999380278</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
-        <v>178.3296493245553</v>
+        <v>160.0433975822949</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9394642895415</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>107.6804826792801</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>89.6080431018391</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7444246896586</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
-        <v>52.08654386482064</v>
+        <v>93.47491924468031</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245553</v>
+        <v>78.14220652642996</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245553</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K13" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245553</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M13" t="n">
-        <v>62.50020612495283</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984359</v>
+        <v>86.15671503804907</v>
       </c>
       <c r="O13" t="n">
-        <v>37.45757960830502</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245553</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="14">
@@ -28351,22 +28351,22 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
+        <v>160.0433975822947</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="L14" t="n">
-        <v>141.3165808583654</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.683164043751802</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15.04365268017744</v>
       </c>
       <c r="Q14" t="n">
         <v>178.3296493245552</v>
@@ -28424,10 +28424,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668481</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245552</v>
+        <v>168.5920509286196</v>
       </c>
       <c r="U15" t="n">
         <v>178.3296493245552</v>
@@ -28466,13 +28466,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>78.14220652642999</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>141.5274484960287</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C16" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="C16" t="n">
-        <v>166.4571809719723</v>
-      </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E16" t="n">
         <v>178.3296493245552</v>
@@ -28497,37 +28497,37 @@
         <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H16" t="n">
-        <v>178.3296493245552</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01246855587064</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245552</v>
+        <v>174.5026257087548</v>
       </c>
       <c r="O16" t="n">
-        <v>70.8845686243655</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P16" t="n">
         <v>58.46036931460877</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28582,40 +28582,40 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
         <v>76.75309993802782</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273169</v>
+        <v>195.2468265688548</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>88.71034424495784</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.6060297307591</v>
+        <v>15.04365268017746</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688966</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R17" t="n">
         <v>194.8604380517429</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4644104852103</v>
+        <v>248.5134947722003</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28643,10 +28643,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28658,10 +28658,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>125.2657325159019</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U18" t="n">
-        <v>48.66568061834857</v>
+        <v>228.9190769862636</v>
       </c>
       <c r="V18" t="n">
-        <v>52.08654386482064</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28825,34 +28825,34 @@
         <v>76.75309993802782</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273169</v>
+        <v>30.28409846034225</v>
       </c>
       <c r="L20" t="n">
-        <v>90.68435748767698</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017747</v>
+        <v>203.6060297307591</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688966</v>
+        <v>89.67545097688965</v>
       </c>
       <c r="R20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28886,10 +28886,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7444246896586</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7086383504341</v>
@@ -28931,22 +28931,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>54.86889874537053</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>81.4096856899184</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652642996</v>
       </c>
       <c r="X21" t="n">
-        <v>28.750537388889</v>
+        <v>28.75053738888897</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344398</v>
       </c>
     </row>
     <row r="22">
@@ -29062,7 +29062,7 @@
         <v>265.3154769886094</v>
       </c>
       <c r="K23" t="n">
-        <v>24.0217481154218</v>
+        <v>6.684449518273162</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.6060297307591</v>
+        <v>97.52051384083144</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688966</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R23" t="n">
         <v>194.8604380517429</v>
@@ -29092,7 +29092,7 @@
         <v>222.4644104852103</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29117,16 +29117,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7444246896586</v>
@@ -29135,10 +29135,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>98.6993637397546</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9701989459033</v>
+        <v>197.1242480600006</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>52.08654386482064</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.750537388889</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680319</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.00069532222061</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I27" t="n">
         <v>107.3572203790713</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504341</v>
@@ -29405,22 +29405,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>79.71926853202146</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29442,7 +29442,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G28" t="n">
         <v>168.7006242014745</v>
@@ -29451,10 +29451,10 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2289512774728</v>
+        <v>172.7118547897726</v>
       </c>
       <c r="K28" t="n">
         <v>67.01246855587064</v>
@@ -29466,40 +29466,40 @@
         <v>25.19323846374671</v>
       </c>
       <c r="N28" t="n">
-        <v>213.4669766680327</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O28" t="n">
         <v>37.45757960830504</v>
       </c>
       <c r="P28" t="n">
-        <v>94.18561255361857</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680314</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29642,22 +29642,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V30" t="n">
-        <v>134.0139301234754</v>
+        <v>132.1774531790762</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="31">
@@ -29676,28 +29676,28 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>196.4024879540275</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H31" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>213.4669766680329</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>118.3700270155929</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M31" t="n">
         <v>25.19323846374671</v>
@@ -29715,28 +29715,28 @@
         <v>127.204364743505</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="32">
@@ -29785,7 +29785,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680329</v>
       </c>
       <c r="P32" t="n">
         <v>213.4669766680327</v>
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
@@ -29870,22 +29870,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680327</v>
+        <v>79.71926853202183</v>
       </c>
       <c r="U33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="V33" t="n">
-        <v>122.8125029265854</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W33" t="n">
         <v>213.4669766680327</v>
@@ -29894,7 +29894,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29916,7 +29916,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G34" t="n">
         <v>213.4669766680327</v>
@@ -29937,10 +29937,10 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374671</v>
+        <v>128.5381265378257</v>
       </c>
       <c r="N34" t="n">
-        <v>168.5758114374194</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O34" t="n">
         <v>37.45757960830504</v>
@@ -29952,7 +29952,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30004,31 +30004,31 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802782</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273169</v>
+        <v>267.142843992902</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2125982824127</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683278</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>21.33169818217024</v>
+      </c>
+      <c r="Q35" t="n">
         <v>272.0596768448573</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>182.1417046325666</v>
       </c>
       <c r="R35" t="n">
         <v>194.8604380517429</v>
@@ -30037,10 +30037,10 @@
         <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30113,19 +30113,19 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>158.2239600768578</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.246189102382687</v>
+        <v>153.6283847051477</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>175.0619750270895</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30174,7 +30174,7 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374671</v>
+        <v>60.74869417927128</v>
       </c>
       <c r="N37" t="n">
         <v>16.4970922298436</v>
@@ -30201,7 +30201,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="V37" t="n">
-        <v>272.0596768448573</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>272.0596768448573</v>
@@ -30241,22 +30241,22 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>240.9968149183972</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
-        <v>76.75309993802782</v>
+        <v>204.5908538636846</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273169</v>
+        <v>6.684449518273162</v>
       </c>
       <c r="L38" t="n">
-        <v>101.3854638365509</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>184.3096571683278</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,13 +30268,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8604380517429</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
         <v>272.0596768448573</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.70180581259785</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
@@ -30356,13 +30356,13 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382687</v>
+        <v>160.3868654364077</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30411,7 +30411,7 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M40" t="n">
-        <v>60.74869417927128</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N40" t="n">
         <v>16.4970922298436</v>
@@ -30423,7 +30423,7 @@
         <v>58.46036931460877</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.204364743505</v>
+        <v>162.7598204590296</v>
       </c>
       <c r="R40" t="n">
         <v>203.4231839810569</v>
@@ -30481,34 +30481,34 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
+        <v>76.75309993802782</v>
+      </c>
+      <c r="K41" t="n">
+        <v>232.2711439396694</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="K41" t="n">
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="L41" t="n">
-        <v>240.9968149183972</v>
-      </c>
-      <c r="M41" t="n">
-        <v>205.8613155524737</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.67545097688966</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T41" t="n">
         <v>240.9968149183972</v>
@@ -30548,19 +30548,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>33.81491320268547</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668488</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30593,7 +30593,7 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30602,10 +30602,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X42" t="n">
-        <v>154.9709939122209</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30648,10 +30648,10 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374671</v>
+        <v>128.3315164616639</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6353702277607</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O43" t="n">
         <v>37.45757960830504</v>
@@ -30718,25 +30718,25 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>76.75309993802782</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
+        <v>54.5399516109657</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>222.2724183443452</v>
-      </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="P44" t="n">
-        <v>15.04365268017747</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
@@ -30748,7 +30748,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>137.4246947216354</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30794,7 +30794,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.154002434246</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
         <v>214.9701989459033</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>172.1725486659875</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30873,10 +30873,10 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I46" t="n">
-        <v>240.9968149183972</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2289512774728</v>
+        <v>185.7935983380496</v>
       </c>
       <c r="K46" t="n">
         <v>67.01246855587064</v>
@@ -30900,7 +30900,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4231839810569</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S46" t="n">
         <v>235.4354176286827</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I11" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R11" t="n">
         <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421371</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J12" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L12" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193122</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R12" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H13" t="n">
         <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K13" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301067</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O13" t="n">
         <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q13" t="n">
         <v>15.28950021563599</v>
       </c>
       <c r="R13" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S13" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I14" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R14" t="n">
         <v>25.56967800380563</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421371</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J15" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L15" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193122</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R15" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H16" t="n">
         <v>1.62339932807426</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K16" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301067</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O16" t="n">
         <v>25.80839749785131</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q16" t="n">
         <v>15.28950021563599</v>
       </c>
       <c r="R16" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S16" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H17" t="n">
         <v>4.168753544767066</v>
@@ -32242,22 +32242,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S17" t="n">
         <v>9.275769207995078</v>
@@ -32266,7 +32266,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J18" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O18" t="n">
         <v>51.81866288876704</v>
@@ -32342,7 +32342,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218917</v>
@@ -32385,43 +32385,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H19" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L19" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N19" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O19" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P19" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S19" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T19" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U19" t="n">
         <v>0.009959505080210184</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H20" t="n">
         <v>4.168753544767066</v>
@@ -32479,22 +32479,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S20" t="n">
         <v>9.275769207995078</v>
@@ -32503,7 +32503,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J21" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O21" t="n">
         <v>51.81866288876704</v>
@@ -32579,7 +32579,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218917</v>
@@ -32622,43 +32622,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H22" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L22" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N22" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O22" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P22" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S22" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T22" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U22" t="n">
         <v>0.009959505080210184</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H23" t="n">
         <v>4.168753544767066</v>
@@ -32716,22 +32716,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S23" t="n">
         <v>9.275769207995078</v>
@@ -32740,7 +32740,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J24" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O24" t="n">
         <v>51.81866288876704</v>
@@ -32816,7 +32816,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218917</v>
@@ -32859,43 +32859,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H25" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L25" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N25" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O25" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P25" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S25" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T25" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U25" t="n">
         <v>0.009959505080210184</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H26" t="n">
         <v>4.168753544767066</v>
@@ -32953,22 +32953,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S26" t="n">
         <v>9.275769207995078</v>
@@ -32977,7 +32977,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,22 +33020,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J27" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O27" t="n">
         <v>51.81866288876704</v>
@@ -33053,7 +33053,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218917</v>
@@ -33096,43 +33096,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H28" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L28" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N28" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O28" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P28" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S28" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T28" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U28" t="n">
         <v>0.009959505080210184</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H29" t="n">
         <v>4.168753544767066</v>
@@ -33190,22 +33190,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S29" t="n">
         <v>9.275769207995078</v>
@@ -33214,7 +33214,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J30" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O30" t="n">
         <v>51.81866288876704</v>
@@ -33290,7 +33290,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218917</v>
@@ -33333,43 +33333,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H31" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L31" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N31" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O31" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P31" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S31" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T31" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U31" t="n">
         <v>0.009959505080210184</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H32" t="n">
         <v>4.168753544767066</v>
@@ -33427,22 +33427,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S32" t="n">
         <v>9.275769207995078</v>
@@ -33451,7 +33451,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,22 +33494,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J33" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O33" t="n">
         <v>51.81866288876704</v>
@@ -33527,7 +33527,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218917</v>
@@ -33570,43 +33570,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H34" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L34" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N34" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O34" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P34" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S34" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T34" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U34" t="n">
         <v>0.009959505080210184</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H35" t="n">
         <v>4.168753544767066</v>
@@ -33664,22 +33664,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S35" t="n">
         <v>9.275769207995078</v>
@@ -33688,7 +33688,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,22 +33731,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J36" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O36" t="n">
         <v>51.81866288876704</v>
@@ -33764,7 +33764,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218917</v>
@@ -33807,43 +33807,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L37" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N37" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O37" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P37" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S37" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T37" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U37" t="n">
         <v>0.009959505080210184</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H38" t="n">
         <v>4.168753544767066</v>
@@ -33901,22 +33901,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S38" t="n">
         <v>9.275769207995078</v>
@@ -33925,7 +33925,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,22 +33968,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J39" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O39" t="n">
         <v>51.81866288876704</v>
@@ -34001,7 +34001,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218917</v>
@@ -34044,43 +34044,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L40" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N40" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O40" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P40" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S40" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T40" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U40" t="n">
         <v>0.009959505080210184</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H41" t="n">
         <v>4.168753544767066</v>
@@ -34138,22 +34138,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S41" t="n">
         <v>9.275769207995078</v>
@@ -34162,7 +34162,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,22 +34205,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J42" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O42" t="n">
         <v>51.81866288876704</v>
@@ -34238,7 +34238,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218917</v>
@@ -34281,43 +34281,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L43" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N43" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O43" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P43" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S43" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T43" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U43" t="n">
         <v>0.009959505080210184</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069147</v>
       </c>
       <c r="H44" t="n">
         <v>4.168753544767066</v>
@@ -34375,22 +34375,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517637</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232048</v>
+        <v>43.95737672232049</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380562</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S44" t="n">
         <v>9.275769207995078</v>
@@ -34399,7 +34399,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055316</v>
+        <v>0.03256441192055317</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,22 +34442,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645665</v>
       </c>
       <c r="J45" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972323</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997497</v>
+        <v>47.28893590997498</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193119</v>
+        <v>55.1839577319312</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810436</v>
       </c>
       <c r="O45" t="n">
         <v>51.81866288876704</v>
@@ -34475,7 +34475,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841226</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218917</v>
@@ -34518,43 +34518,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H46" t="n">
-        <v>1.623399328074259</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222544</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084766</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L46" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301066</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N46" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O46" t="n">
-        <v>25.8083974978513</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P46" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119918</v>
       </c>
       <c r="S46" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T46" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831301</v>
       </c>
       <c r="U46" t="n">
         <v>0.009959505080210184</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6451998062822</v>
+        <v>153.3589480640217</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630117</v>
       </c>
       <c r="O11" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P11" t="n">
-        <v>92.63682999910267</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766567</v>
+        <v>88.65419834766554</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>38.37582528515625</v>
       </c>
       <c r="L12" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351702</v>
       </c>
       <c r="M12" t="n">
         <v>183.5573176570688</v>
@@ -35541,49 +35541,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595872135</v>
+        <v>0.7127286595870999</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87246835258296</v>
+        <v>11.87246835258284</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1469990738446</v>
+        <v>33.14699907384448</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233031</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.40276710610866</v>
+        <v>39.40276710610854</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.629025123080746</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818969</v>
+        <v>12.50659175818958</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879843</v>
+        <v>13.48121398879832</v>
       </c>
       <c r="J13" t="n">
-        <v>58.10069804708255</v>
+        <v>58.10069804708242</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>146.2002418739981</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>37.30696766120613</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>69.65962280820548</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099465</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.5765493865274</v>
       </c>
       <c r="K14" t="n">
-        <v>171.645199806282</v>
+        <v>153.3589480640215</v>
       </c>
       <c r="L14" t="n">
-        <v>188.5623770505816</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M14" t="n">
-        <v>85.42085164289504</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630117</v>
       </c>
       <c r="O14" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.2859966443778</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766553</v>
+        <v>88.6541983476656</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578656</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7127286595870714</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233017</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610851</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H16" t="n">
-        <v>12.50659175818955</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879829</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.1006980470824</v>
+        <v>58.10069804708248</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608085</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947115</v>
+        <v>158.0055334789112</v>
       </c>
       <c r="O16" t="n">
-        <v>33.42698901606047</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105025</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="L17" t="n">
         <v>47.24579619221618</v>
       </c>
       <c r="M17" t="n">
-        <v>170.4480318441011</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N17" t="n">
+        <v>76.14873730630117</v>
+      </c>
+      <c r="O17" t="n">
+        <v>34.62291276104003</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="O17" t="n">
-        <v>34.62291276104001</v>
-      </c>
-      <c r="P17" t="n">
-        <v>188.5623770505816</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9152542219973</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>26.04908428699002</v>
       </c>
       <c r="U17" t="n">
         <v>47.27407718077497</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.3758252851563</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35972,13 +35972,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>23.59964894206909</v>
       </c>
       <c r="L20" t="n">
-        <v>137.9301536798932</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N20" t="n">
+        <v>76.14873730630117</v>
+      </c>
+      <c r="O20" t="n">
+        <v>34.62291276104003</v>
+      </c>
+      <c r="P20" t="n">
         <v>188.5623770505816</v>
-      </c>
-      <c r="O20" t="n">
-        <v>188.5623770505816</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,10 +36145,10 @@
         <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
         <v>47.27407718077497</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,26 +36358,26 @@
         <v>188.5623770505816</v>
       </c>
       <c r="K23" t="n">
-        <v>17.33729859714864</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>47.24579619221618</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N23" t="n">
+        <v>76.14873730630117</v>
+      </c>
+      <c r="O23" t="n">
+        <v>34.62291276104003</v>
+      </c>
+      <c r="P23" t="n">
+        <v>82.47686116065398</v>
+      </c>
+      <c r="Q23" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="O23" t="n">
-        <v>34.62291276104001</v>
-      </c>
-      <c r="P23" t="n">
-        <v>188.5623770505816</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.712772860248</v>
       </c>
       <c r="M26" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743339</v>
+        <v>289.615713974334</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q26" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628987</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.00979569606045</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.54009444958615</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.61854133227592</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>52.48290351229981</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,19 +36762,19 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9698844381891</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.7252432390098</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.04379268697595</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497597</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L29" t="n">
-        <v>260.7127728602491</v>
+        <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.2046642671761</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743325</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290729</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878554</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7915256911432</v>
+        <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628993</v>
+        <v>18.60653861628981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36972,28 +36972,28 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>54.72634674180251</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.54009444958609</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.7663524665583</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.61854133227587</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4545081121622</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>86.24061956503567</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.04379268697589</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290729</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628976</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.85005600306465</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37212,10 +37212,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.54009444958604</v>
       </c>
       <c r="G34" t="n">
-        <v>44.7663524665583</v>
+        <v>44.76635246655824</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>103.344888074079</v>
       </c>
       <c r="N34" t="n">
-        <v>152.0787192075758</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.04379268697583</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4583944746289</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4583944746289</v>
+        <v>76.14873730630117</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646799</v>
+        <v>6.288045501992776</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.46625365567697</v>
+        <v>182.3842258679677</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,10 +37333,10 @@
         <v>44.55033927479341</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>8.604794055117146</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.95066166040743</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>127.8377539256568</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>148.6312600287671</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4583944746289</v>
+        <v>76.14873730630117</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P38" t="n">
         <v>257.0160241646799</v>
@@ -37564,13 +37564,13 @@
         <v>182.3842258679677</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.1992387931144</v>
       </c>
       <c r="S38" t="n">
         <v>44.55033927479341</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U38" t="n">
         <v>21.90916223357109</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>35.55545571552457</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.312365400124</v>
+        <v>225.5866944213963</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M41" t="n">
-        <v>287.5990031516169</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630116</v>
+        <v>76.14873730630117</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276104001</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382197</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665427</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833328</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318693</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="N43" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
         <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106134</v>
+        <v>101.7857478031819</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N44" t="n">
-        <v>298.4211556506464</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9531622382198</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415075</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665427</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S44" t="n">
         <v>13.48747734833328</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.53240443318693</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545052</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>26.98989841527682</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14837958264033</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.56464706057682</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.57363093734035</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
